--- a/Proyecto#2/Documentacion/Casos de prueba.xlsx
+++ b/Proyecto#2/Documentacion/Casos de prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -105,13 +105,52 @@
   </si>
   <si>
     <t>Uno de los requisitos para iniciar sesión, es que el usuario no se encuentre baneado, lo que quiere decir es que no posea el límite máximo de baneos.</t>
+  </si>
+  <si>
+    <t>Para que el usuario pueda iniciar sesión, se verifica que su cuenta no se encuentre desactivada.</t>
+  </si>
+  <si>
+    <t>Una vez que en el inicio de sesión se haya verificado que el usuario exista, se comprueba que la contraseña suministrada sea igual a la contraseña almacenada en la base de datos.</t>
+  </si>
+  <si>
+    <t>CrearEntidad.php</t>
+  </si>
+  <si>
+    <t>**El número de cédula jurídica ya se encuentra registrado.</t>
+  </si>
+  <si>
+    <t>Antes de crear una nueva entidad, el sistema verifica que no exista otra entidad asociada a esa misma cédula jurídica.</t>
+  </si>
+  <si>
+    <t>Si la persona durante el registro de entidad no llena todos los campos,el sistema le solicitará llenar los espacios faltantes.</t>
+  </si>
+  <si>
+    <t>PersonaFisica.php</t>
+  </si>
+  <si>
+    <t>En el registro de persona física se verifica que el número de cédula de la persona que se quiere registrar, no se encuentre previamente en la base de datos.</t>
+  </si>
+  <si>
+    <t>UpdatePerfil.php</t>
+  </si>
+  <si>
+    <t>BusquedaAvanzada.php</t>
+  </si>
+  <si>
+    <t>Si el usuario no indica, los parámetros de consulta se le solicitará llenar los espacios indicados.</t>
+  </si>
+  <si>
+    <t>No se desplegará información.</t>
+  </si>
+  <si>
+    <t>Si no existe ningún registro con los parámetros solicitados, no se mostrará ningún usuario.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +187,12 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -329,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyFont="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,55 +418,58 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,6 +490,106 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -462,6 +610,82 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -494,182 +718,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -689,14 +737,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E57" totalsRowShown="0" headerRowDxfId="1" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E57" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A5:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="9"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="0"/>
-    <tableColumn id="5" name="Página" dataDxfId="8"/>
-    <tableColumn id="3" name="Resultado" dataDxfId="7"/>
-    <tableColumn id="4" name="Estado" dataDxfId="6"/>
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="5" name="Página" dataDxfId="2"/>
+    <tableColumn id="3" name="Resultado" dataDxfId="1"/>
+    <tableColumn id="4" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -967,68 +1015,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="106.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="118.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1036,13 +1084,13 @@
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1054,7 +1102,7 @@
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1072,13 +1120,13 @@
         <f t="shared" ref="A8:A21" si="0">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1090,13 +1138,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1108,13 +1156,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1126,13 +1174,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1144,13 +1192,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1162,13 +1210,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1180,86 +1228,144 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f>A21+1</f>
         <v>17</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="14"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13"/>
@@ -1269,7 +1375,7 @@
         <f t="shared" ref="A23:A57" si="1">A22+1</f>
         <v>18</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -1279,7 +1385,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="14"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
@@ -1289,7 +1395,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -1299,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="14"/>
       <c r="D26" s="10"/>
       <c r="E26" s="13"/>
@@ -1309,7 +1415,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -1319,7 +1425,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="14"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13"/>
@@ -1329,7 +1435,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -1339,7 +1445,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="14"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13"/>
@@ -1349,7 +1455,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -1359,17 +1465,25 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -1379,7 +1493,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="14"/>
       <c r="D34" s="9"/>
       <c r="E34" s="13"/>
@@ -1389,7 +1503,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -1399,7 +1513,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="14"/>
       <c r="D36" s="9"/>
       <c r="E36" s="13"/>
@@ -1409,7 +1523,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -1419,7 +1533,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="14"/>
       <c r="D38" s="9"/>
       <c r="E38" s="13"/>
@@ -1429,7 +1543,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -1439,7 +1553,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="14"/>
       <c r="D40" s="9"/>
       <c r="E40" s="13"/>
@@ -1449,7 +1563,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -1459,7 +1573,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="14"/>
       <c r="D42" s="9"/>
       <c r="E42" s="13"/>
@@ -1469,7 +1583,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -1479,7 +1593,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="14"/>
       <c r="D44" s="9"/>
       <c r="E44" s="13"/>
@@ -1489,7 +1603,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
@@ -1499,7 +1613,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
       <c r="E46" s="13"/>
@@ -1509,7 +1623,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -1519,7 +1633,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="14"/>
       <c r="D48" s="9"/>
       <c r="E48" s="13"/>
@@ -1529,7 +1643,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
@@ -1539,7 +1653,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B50" s="31"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="14"/>
       <c r="D50" s="9"/>
       <c r="E50" s="13"/>
@@ -1549,7 +1663,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
@@ -1559,7 +1673,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="14"/>
       <c r="D52" s="9"/>
       <c r="E52" s="13"/>
@@ -1569,7 +1683,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B53" s="28"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
@@ -1579,7 +1693,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="14"/>
       <c r="D54" s="9"/>
       <c r="E54" s="13"/>
@@ -1589,7 +1703,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B55" s="28"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
@@ -1599,7 +1713,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="14"/>
       <c r="D56" s="9"/>
       <c r="E56" s="13"/>
@@ -1609,7 +1723,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>

--- a/Proyecto#2/Documentacion/Casos de prueba.xlsx
+++ b/Proyecto#2/Documentacion/Casos de prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1385,18 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1398,7 +1406,9 @@
       <c r="B25" s="19"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11">

--- a/Proyecto#2/Documentacion/Casos de prueba.xlsx
+++ b/Proyecto#2/Documentacion/Casos de prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -137,20 +137,203 @@
     <t>BusquedaAvanzada.php</t>
   </si>
   <si>
-    <t>Si el usuario no indica, los parámetros de consulta se le solicitará llenar los espacios indicados.</t>
-  </si>
-  <si>
     <t>No se desplegará información.</t>
   </si>
   <si>
     <t>Si no existe ningún registro con los parámetros solicitados, no se mostrará ningún usuario.</t>
+  </si>
+  <si>
+    <t>No se puede acceder a ninguna página de perfil si no se incia sesión.</t>
+  </si>
+  <si>
+    <t>Si el usuario inicia sesion y cambia el url para dirigirse hacia mostrar datos, el sistema no lo permite.</t>
+  </si>
+  <si>
+    <t>MostrarDatos.php</t>
+  </si>
+  <si>
+    <t>No ha realizado una búsqueda antes.</t>
+  </si>
+  <si>
+    <t>Un usuario no se puede calificar a si mismo.</t>
+  </si>
+  <si>
+    <t>No puede reportar a su propio usuario.</t>
+  </si>
+  <si>
+    <t>El sistema no permite que un usuario califique más de una vez a una persona o entidad.</t>
+  </si>
+  <si>
+    <t>Ya ha calificado anteriormente a este usuario.</t>
+  </si>
+  <si>
+    <t>Ya ha reportado anteriormente a este usuario.</t>
+  </si>
+  <si>
+    <t>Un usuario no puede reportar a otro usuario más de una vez.</t>
+  </si>
+  <si>
+    <t>Un usuario no se puede reportar a si mismo.</t>
+  </si>
+  <si>
+    <t>No puede calificar a su propio usuario.</t>
+  </si>
+  <si>
+    <t>Si el usuario no indica, los parámetros de consulta se le solicitará seleccionar los espacios indicados.</t>
+  </si>
+  <si>
+    <t>Si durante la búsqueda no se indica el criterio en la caja de texto, el sistema le indicará que debe completar todos los campos.</t>
+  </si>
+  <si>
+    <t>Ingreso de la nueva calificación.</t>
+  </si>
+  <si>
+    <t>Si un usuario elimina la calificación que había realizado sobre otro usuario, puede volver a calificarlo.</t>
+  </si>
+  <si>
+    <t>Un usuario no puede calificar a otro sin evidencia.</t>
+  </si>
+  <si>
+    <t>agregarAdmin.php</t>
+  </si>
+  <si>
+    <t>Solo un administrador puede agregar a otro administrador.</t>
+  </si>
+  <si>
+    <t>Solo un administrador puede definir la cantidad de baneos que se necesitan para bloquear a otro usuario.</t>
+  </si>
+  <si>
+    <t>La calificación más baja que se le puede proporcionar a un usuario es de uno.</t>
+  </si>
+  <si>
+    <t>Cuando se abre el formulario de una persona que no haya sido calificada aún, por defecto aparece solo una estrella.</t>
+  </si>
+  <si>
+    <t>No se mostrará la información de aquellas personas que tengan la opción de que sus datos sean privados.</t>
+  </si>
+  <si>
+    <t>Solo los administradores pueden observar la información de aquellos usuarios que indicaron que sus datos sean privados.</t>
+  </si>
+  <si>
+    <t>La evidencia ingresada por el usuario, debe ser un archivo válido en este caso con extesión .txt o tener el formato de una imagen.</t>
+  </si>
+  <si>
+    <t>Archivo no válido.</t>
+  </si>
+  <si>
+    <t>Si el número de cédula del administrador que se desea registrar no existe, puede registrar al nuevo administrador.</t>
+  </si>
+  <si>
+    <t>Si la información personal de un usuario es privada, en mostrar calificaciones se mostrará únicamente el nombre de usuario debajo de las calificaciones.</t>
+  </si>
+  <si>
+    <t>Muestra el usuario si es privado, si su información personal es pública muestra el nombre completo de la persona.</t>
+  </si>
+  <si>
+    <t>Cuando se desea reportar a una persona, en la ventana del reporte se le mostrará el nombre completo en caso de que su información personal es pública, en caso contrario solo se podrá observar el nombre de usuario.</t>
+  </si>
+  <si>
+    <t>Muestra en el reporte el usuario si es privado, si su información personal es pública muestra el nombre completo de la persona.</t>
+  </si>
+  <si>
+    <t>MostrarUsuarios.php</t>
+  </si>
+  <si>
+    <t>No ha realizado una búsqueda antes, redirige hacia busquedaAvanzada.php.</t>
+  </si>
+  <si>
+    <t>En caso de que el usuario, cuando haya iniciado sesión, modifique el URL para dirigirse hacia MostrarUsuarios.php, el sistema no le permitirá tener acceso hacia esa página y lo redirige hacia BusquedaAvanzada.php</t>
+  </si>
+  <si>
+    <t>El sistema permite que existan dos usuarios conectados al mismo  tiempo.</t>
+  </si>
+  <si>
+    <t>No muestra mensaje, pero se unen ambas tablas.</t>
+  </si>
+  <si>
+    <t>Cuando un usuario se registra, se verifica si la cédula ya se encuentra registrada con una persona fisica, se relacionan ambos usuarios.</t>
+  </si>
+  <si>
+    <t>Si le da click al boton de buscar  sin especificar la búsqueda, se le desplegaran todos los registros de persona física y entidad.</t>
+  </si>
+  <si>
+    <t>Se despliegan todos los registros de persona física y entidad.</t>
+  </si>
+  <si>
+    <t>Cuando el usuario registra una nueva categoría, se verifica que no exista previamente.</t>
+  </si>
+  <si>
+    <t>**La categoría ya se encuentra registrada.</t>
+  </si>
+  <si>
+    <t>Los usuarios no pueden eliminar sus cuentas, únicamente pueden darse de baja.</t>
+  </si>
+  <si>
+    <t>MiPerfil.php</t>
+  </si>
+  <si>
+    <t>En mi perfil aparece un botón únicamente para deshabilitar la cuenta, no eliminarla.</t>
+  </si>
+  <si>
+    <t>Un usuario no puede cambiar el número de cédula con el que se registró.</t>
+  </si>
+  <si>
+    <t>En updatePerfil.php no aparece el campo de cédula para actualizarlo.</t>
+  </si>
+  <si>
+    <t>El administrador no puede editar la información de los usuarios registrados.</t>
+  </si>
+  <si>
+    <t>En la sección del administrador no se puede modificar la información de otros usuarios.</t>
+  </si>
+  <si>
+    <t>La cédula jurídica de una entidad solo puede contener números.</t>
+  </si>
+  <si>
+    <t>**La cédula debe de ser un número.</t>
+  </si>
+  <si>
+    <t>**Este administrador ya se encuentra registrado.</t>
+  </si>
+  <si>
+    <t>Antes de que el administrador agregue a otro usuario como administrador, se verifica que el otro usuario ya no sea administrador.</t>
+  </si>
+  <si>
+    <t>El espacio de número de reportes no puede ser vacío.</t>
+  </si>
+  <si>
+    <t>***No puede ser campo nulo.</t>
+  </si>
+  <si>
+    <t>El espacio de número de reportes no puede incluir letras, únicamente números.</t>
+  </si>
+  <si>
+    <t>**El número de reportes debe ser un número.</t>
+  </si>
+  <si>
+    <t>Si los registros asociados a la búsqueda sobre pasan la capacidad de la división, aparece un scrollbar que permite ver los registros faltantes.</t>
+  </si>
+  <si>
+    <t>Aparece el scrollbar.</t>
+  </si>
+  <si>
+    <t>Se actualizan los combobox de provincia, país, distrito, cantón.</t>
+  </si>
+  <si>
+    <t>Cuando se indica la dirección de la entidad, se selecciona un país depende del país seleccionado, aparecerán las provincias.</t>
+  </si>
+  <si>
+    <t>Para ver las categorías en orden alfabetico, no es necesario indicar el filtro en la caja de texto.</t>
+  </si>
+  <si>
+    <t>Aparecen todas las categorias, en orden alfabetico.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,18 +348,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
@@ -184,17 +355,17 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Georgia"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="3"/>
-      <name val="Georgia"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +384,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -296,19 +473,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -372,9 +536,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyFont="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,41 +547,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,9 +570,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -442,35 +582,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,202 +652,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -718,6 +683,176 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -737,14 +872,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E57" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A5:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E55" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A5:E55"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="5" name="Página" dataDxfId="2"/>
-    <tableColumn id="3" name="Resultado" dataDxfId="1"/>
-    <tableColumn id="4" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="6"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="5" name="Página" dataDxfId="4"/>
+    <tableColumn id="3" name="Resultado" dataDxfId="3"/>
+    <tableColumn id="4" name="Estado" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,31 +1163,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -1064,36 +1199,36 @@
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1102,34 +1237,34 @@
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="6">
         <f t="shared" ref="A8:A21" si="0">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1138,34 +1273,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1174,34 +1309,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1210,32 +1345,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1243,32 +1378,32 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1277,34 +1412,34 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1313,32 +1448,32 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1347,54 +1482,66 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>39</v>
+      <c r="B21" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="D21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <f>A21+1</f>
         <v>17</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" ref="A23:A57" si="1">A22+1</f>
+        <f t="shared" ref="A23:A55" si="1">A22+1</f>
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1403,88 +1550,140 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="B32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1493,250 +1692,400 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="B37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="B39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="B43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="B45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="B47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="B49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="13"/>
+      <c r="B50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="B51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="B53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="13"/>
+      <c r="B54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
+      <c r="B55" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Proyecto#2/Documentacion/Casos de prueba.xlsx
+++ b/Proyecto#2/Documentacion/Casos de prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Uno de los requisitos para iniciar sesión, es que el usuario no se encuentre baneado, lo que quiere decir es que no posea el límite máximo de baneos.</t>
   </si>
   <si>
-    <t>Para que el usuario pueda iniciar sesión, se verifica que su cuenta no se encuentre desactivada.</t>
-  </si>
-  <si>
     <t>Una vez que en el inicio de sesión se haya verificado que el usuario exista, se comprueba que la contraseña suministrada sea igual a la contraseña almacenada en la base de datos.</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Si el usuario no indica, los parámetros de consulta se le solicitará seleccionar los espacios indicados.</t>
   </si>
   <si>
-    <t>Si durante la búsqueda no se indica el criterio en la caja de texto, el sistema le indicará que debe completar todos los campos.</t>
-  </si>
-  <si>
     <t>Ingreso de la nueva calificación.</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>Solo un administrador puede agregar a otro administrador.</t>
   </si>
   <si>
-    <t>Solo un administrador puede definir la cantidad de baneos que se necesitan para bloquear a otro usuario.</t>
-  </si>
-  <si>
     <t>La calificación más baja que se le puede proporcionar a un usuario es de uno.</t>
   </si>
   <si>
@@ -327,6 +318,48 @@
   </si>
   <si>
     <t>Aparecen todas las categorias, en orden alfabetico.</t>
+  </si>
+  <si>
+    <t>Para que el usuario pueda iniciar sesión, se verifica que su cuenta no se encuentre deshabilitada.</t>
+  </si>
+  <si>
+    <t>**El usuario indicado se encuentra deshabilitado.</t>
+  </si>
+  <si>
+    <t>**Contraseña inválida.</t>
+  </si>
+  <si>
+    <t>Tienen que seleccionar una categoría</t>
+  </si>
+  <si>
+    <t>Si durante la búsqueda no se indica el criterio en la caja de texto, se buscaran los registros con ese filtro vacío.</t>
+  </si>
+  <si>
+    <t>Imprime los registros con ese campo vacío.</t>
+  </si>
+  <si>
+    <t>No se muestra el nombre de las personas que tengan su información privada, únicamente su nombre de usuario.</t>
+  </si>
+  <si>
+    <t>Sesión no iniciada.</t>
+  </si>
+  <si>
+    <t>Si el número de cédula no registra, aparece una sección para agregar al nuevo administrador.</t>
+  </si>
+  <si>
+    <t>Please select the file.</t>
+  </si>
+  <si>
+    <t>Solo un administrador puede definir la cantidad de reportes que se necesitan para bloquear a otro usuario.</t>
+  </si>
+  <si>
+    <t>Solo el administrador puede establecer la cantidad de reportes para que un usuario se bloquee.</t>
+  </si>
+  <si>
+    <t>Solo el administrador puede ver la información de los usuarios que tienen sus datos privados.</t>
+  </si>
+  <si>
+    <t>Dos usuarios pueden estar conectados al mismo tiempo.</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,12 +1397,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>4</v>
       </c>
@@ -1379,12 +1414,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1395,13 +1432,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>4</v>
@@ -1413,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -1431,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>19</v>
@@ -1452,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>18</v>
@@ -1467,12 +1504,14 @@
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1483,30 +1522,32 @@
         <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>A21+1</f>
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E22" s="7" t="s">
         <v>4</v>
       </c>
@@ -1517,12 +1558,14 @@
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1536,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>18</v>
@@ -1551,12 +1594,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1567,13 +1612,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -1585,13 +1630,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>4</v>
@@ -1603,13 +1648,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>4</v>
@@ -1621,13 +1666,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>4</v>
@@ -1639,13 +1684,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>4</v>
@@ -1657,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
@@ -1675,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>4</v>
@@ -1693,12 +1738,14 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1709,12 +1756,14 @@
         <v>29</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E34" s="7" t="s">
         <v>4</v>
       </c>
@@ -1725,12 +1774,14 @@
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1741,12 +1792,14 @@
         <v>31</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="E36" s="7" t="s">
         <v>4</v>
       </c>
@@ -1757,13 +1810,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>4</v>
@@ -1775,12 +1828,14 @@
         <v>33</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="E38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1791,13 +1846,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
@@ -1809,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>4</v>
@@ -1827,13 +1882,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
@@ -1845,12 +1900,14 @@
         <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E42" s="7" t="s">
         <v>4</v>
       </c>
@@ -1861,13 +1918,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
@@ -1879,13 +1936,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>4</v>
@@ -1897,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
@@ -1915,13 +1972,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>4</v>
@@ -1933,13 +1990,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>4</v>
@@ -1951,13 +2008,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>4</v>
@@ -1969,13 +2026,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>4</v>
@@ -1987,13 +2044,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>4</v>
@@ -2005,13 +2062,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
@@ -2023,13 +2080,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -2039,13 +2096,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>4</v>
@@ -2057,13 +2114,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>4</v>
@@ -2075,13 +2132,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>4</v>

--- a/Proyecto#2/Documentacion/Casos de prueba.xlsx
+++ b/Proyecto#2/Documentacion/Casos de prueba.xlsx
@@ -62,9 +62,6 @@
     <t>Página</t>
   </si>
   <si>
-    <t>**Debe de aceptar los terminos y condiciones de uso.</t>
-  </si>
-  <si>
     <t>**Llene todos los espacios.</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Antes de crear una nueva entidad, el sistema verifica que no exista otra entidad asociada a esa misma cédula jurídica.</t>
   </si>
   <si>
-    <t>Si la persona durante el registro de entidad no llena todos los campos,el sistema le solicitará llenar los espacios faltantes.</t>
-  </si>
-  <si>
     <t>PersonaFisica.php</t>
   </si>
   <si>
@@ -140,12 +134,6 @@
     <t>Si no existe ningún registro con los parámetros solicitados, no se mostrará ningún usuario.</t>
   </si>
   <si>
-    <t>No se puede acceder a ninguna página de perfil si no se incia sesión.</t>
-  </si>
-  <si>
-    <t>Si el usuario inicia sesion y cambia el url para dirigirse hacia mostrar datos, el sistema no lo permite.</t>
-  </si>
-  <si>
     <t>MostrarDatos.php</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>Solo los administradores pueden observar la información de aquellos usuarios que indicaron que sus datos sean privados.</t>
   </si>
   <si>
-    <t>La evidencia ingresada por el usuario, debe ser un archivo válido en este caso con extesión .txt o tener el formato de una imagen.</t>
-  </si>
-  <si>
     <t>Archivo no válido.</t>
   </si>
   <si>
@@ -317,9 +302,6 @@
     <t>Para ver las categorías en orden alfabetico, no es necesario indicar el filtro en la caja de texto.</t>
   </si>
   <si>
-    <t>Aparecen todas las categorias, en orden alfabetico.</t>
-  </si>
-  <si>
     <t>Para que el usuario pueda iniciar sesión, se verifica que su cuenta no se encuentre deshabilitada.</t>
   </si>
   <si>
@@ -347,9 +329,6 @@
     <t>Si el número de cédula no registra, aparece una sección para agregar al nuevo administrador.</t>
   </si>
   <si>
-    <t>Please select the file.</t>
-  </si>
-  <si>
     <t>Solo un administrador puede definir la cantidad de reportes que se necesitan para bloquear a otro usuario.</t>
   </si>
   <si>
@@ -360,6 +339,27 @@
   </si>
   <si>
     <t>Dos usuarios pueden estar conectados al mismo tiempo.</t>
+  </si>
+  <si>
+    <t>Por favor seleccione un archivo.</t>
+  </si>
+  <si>
+    <t>Si la persona durante el registro de entidad no llena todos los campos, el sistema le solicitará llenar los espacios faltantes.</t>
+  </si>
+  <si>
+    <t>No se puede acceder a ninguna página de perfil si no se inicia sesión.</t>
+  </si>
+  <si>
+    <t>Si el usuario inicia sesión y cambia el url para dirigirse hacia mostrar datos, el sistema no lo permite.</t>
+  </si>
+  <si>
+    <t>La evidencia ingresada por el usuario, debe ser un archivo válido en este caso con extensión .txt o tener el formato de una imagen.</t>
+  </si>
+  <si>
+    <t>Aparecen todas las categorías, en orden alfabético.</t>
+  </si>
+  <si>
+    <t>**Debe de aceptar los términos y condiciones de uso.</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyFont="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,6 +639,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -657,14 +666,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,6 +688,176 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -716,176 +889,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -905,14 +908,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E55" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:E55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A5:E55"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="6"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="5"/>
-    <tableColumn id="5" name="Página" dataDxfId="4"/>
-    <tableColumn id="3" name="Resultado" dataDxfId="3"/>
-    <tableColumn id="4" name="Estado" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="5" name="Página" dataDxfId="2"/>
+    <tableColumn id="3" name="Resultado" dataDxfId="1"/>
+    <tableColumn id="4" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,40 +1199,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1253,13 +1256,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
@@ -1271,13 +1274,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>4</v>
@@ -1289,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>4</v>
@@ -1313,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>4</v>
@@ -1325,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>4</v>
@@ -1343,13 +1346,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>4</v>
@@ -1361,13 +1364,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>4</v>
@@ -1379,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>4</v>
@@ -1397,13 +1400,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>4</v>
@@ -1414,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
@@ -1432,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>4</v>
@@ -1450,13 +1453,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>4</v>
@@ -1468,13 +1471,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>4</v>
@@ -1489,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>4</v>
@@ -1504,13 +1507,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>4</v>
@@ -1522,13 +1525,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>4</v>
@@ -1540,13 +1543,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>4</v>
@@ -1558,13 +1561,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>4</v>
@@ -1579,10 +1582,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>4</v>
@@ -1594,13 +1597,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>4</v>
@@ -1612,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -1630,13 +1633,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>4</v>
@@ -1648,13 +1651,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>4</v>
@@ -1666,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>4</v>
@@ -1684,13 +1687,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>4</v>
@@ -1702,13 +1705,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
@@ -1720,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>4</v>
@@ -1738,13 +1741,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>107</v>
+        <v>36</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
@@ -1756,13 +1759,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>4</v>
@@ -1774,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
@@ -1792,13 +1795,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>4</v>
@@ -1810,13 +1813,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>4</v>
@@ -1828,13 +1831,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>4</v>
@@ -1846,13 +1849,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
@@ -1864,13 +1867,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>4</v>
@@ -1882,13 +1885,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
@@ -1900,13 +1903,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>4</v>
@@ -1918,13 +1921,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
@@ -1936,13 +1939,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>4</v>
@@ -1954,13 +1957,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
@@ -1972,13 +1975,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>4</v>
@@ -1990,13 +1993,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>4</v>
@@ -2008,13 +2011,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>4</v>
@@ -2026,13 +2029,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>4</v>
@@ -2044,13 +2047,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>4</v>
@@ -2062,13 +2065,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
@@ -2080,13 +2083,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -2096,13 +2099,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>4</v>
@@ -2114,13 +2117,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>4</v>
@@ -2132,13 +2135,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>4</v>
